--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433C526C-7497-491A-9BCA-DF4072C2DAB3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786BB1B0-4B0B-4F08-9C2C-E0052D9BF411}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,70 +34,39 @@
     <t>Goal</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Avian interactions with least concern and critically endangered fruiting </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Opuntia </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ssp.  </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Avian seed dispersal influence on seed shadow on Cactaceae obligatory facilitatees </t>
-  </si>
-  <si>
-    <t>Determine the role of birds as seed dispersers for Saguaro ssp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connect bird interactions with fruit size/production in cacti of different endangerment status. </t>
-  </si>
-  <si>
     <t>Identify and isolate the combined results of relevant studies in Cactaceae in regards to fruiting patterns.</t>
   </si>
   <si>
-    <t>Cactaceae A meta-analysis</t>
-  </si>
-  <si>
     <t>Derived data extracted by December 2018. Paper written by January 2019.</t>
   </si>
   <si>
-    <t xml:space="preserve">Flowering field season January-Febuary 2020. Fruitnig field season June 2020. Paper written by August 2020. </t>
-  </si>
-  <si>
-    <t>Flowering field season January-Febuary 2019. Fruiting field season June 2019. Paper written by August 2019.</t>
+    <t>Strength of birds as pollinators and seed dispersers in Cactaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avian pollination and seed dispersal influence on seed shadow of Cactaceae obligatory facilitatees </t>
+  </si>
+  <si>
+    <t>Determine the role of birds as pollinators and seed dispersers for Saguaro ssp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connect bird interactions with flowering and fruiting in cacti of different endangerment status. </t>
+  </si>
+  <si>
+    <t>Flowering field season January-Febuary April-May 2019. Fruiting field season August 2019. Paper written by January 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flowering field season April-May 2020. Fruitnig field season August 2020. Paper written by December 2020. </t>
+  </si>
+  <si>
+    <t>Fruiting metrics in Cactaceae- A meta-analysis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -410,7 +379,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -439,13 +408,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -453,13 +422,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -467,10 +436,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
